--- a/results/mp/tinybert/corona/confidence/126/topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,30 +40,24 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -79,22 +73,31 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thank</t>
   </si>
   <si>
     <t>nice</t>
@@ -103,91 +106,91 @@
     <t>free</t>
   </si>
   <si>
-    <t>ensure</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>store</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>of</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,10 +556,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,13 +617,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -632,19 +635,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -656,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -664,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.88</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -682,31 +685,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>0.9491525423728814</v>
+      </c>
+      <c r="L4">
+        <v>56</v>
+      </c>
+      <c r="M4">
+        <v>56</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L4">
-        <v>22</v>
-      </c>
-      <c r="M4">
-        <v>22</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -714,13 +717,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7337662337662337</v>
+        <v>0.6506849315068494</v>
       </c>
       <c r="C5">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="D5">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -732,19 +735,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -756,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -764,49 +767,49 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7058823529411765</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>12</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6">
-        <v>0.90625</v>
-      </c>
-      <c r="L6">
-        <v>29</v>
-      </c>
-      <c r="M6">
-        <v>29</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -814,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4583333333333333</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -832,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -856,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -864,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3928571428571428</v>
+        <v>0.2131782945736434</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -882,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>406</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8823529411764706</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -906,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -914,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3433476394849785</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="D9">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -932,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -956,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -964,13 +967,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2631578947368421</v>
+        <v>0.1342281879194631</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -982,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8392857142857143</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1006,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1014,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2325581395348837</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1032,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>66</v>
+        <v>233</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.7890625</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1056,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1064,13 +1067,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1082,119 +1085,71 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>64</v>
+        <v>338</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L12">
+        <v>21</v>
+      </c>
+      <c r="M12">
+        <v>21</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="L13">
+        <v>92</v>
+      </c>
+      <c r="M13">
+        <v>92</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K12">
-        <v>0.8205128205128205</v>
-      </c>
-      <c r="L12">
-        <v>32</v>
-      </c>
-      <c r="M12">
-        <v>32</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.1454545454545454</v>
-      </c>
-      <c r="C13">
-        <v>16</v>
-      </c>
-      <c r="D13">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>94</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L13">
-        <v>22</v>
-      </c>
-      <c r="M13">
-        <v>22</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.1407407407407407</v>
-      </c>
-      <c r="C14">
-        <v>19</v>
-      </c>
-      <c r="D14">
-        <v>19</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>116</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K14">
-        <v>0.7843137254901961</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1206,21 +1161,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1232,21 +1187,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.7758620689655172</v>
+        <v>0.6971830985915493</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1258,21 +1213,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.7692307692307693</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1284,21 +1239,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.7647058823529411</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L18">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1310,21 +1265,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.726027397260274</v>
+        <v>0.6875</v>
       </c>
       <c r="L19">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="M19">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1336,21 +1291,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.7241379310344828</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1362,47 +1317,47 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.6923076923076923</v>
+        <v>0.625</v>
       </c>
       <c r="L21">
+        <v>30</v>
+      </c>
+      <c r="M21">
+        <v>30</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>18</v>
-      </c>
-      <c r="M21">
-        <v>18</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>8</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.6818181818181818</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1414,21 +1369,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1440,21 +1395,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.64</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1466,21 +1421,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.631578947368421</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L25">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1492,21 +1447,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.625</v>
+        <v>0.5456919060052219</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1518,21 +1473,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.568075117370892</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="L27">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="M27">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1544,21 +1499,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>92</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.55</v>
+        <v>0.4203389830508474</v>
       </c>
       <c r="L28">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="M28">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1570,21 +1525,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.5357142857142857</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1596,47 +1551,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30">
+        <v>0.3424657534246575</v>
+      </c>
+      <c r="L30">
+        <v>25</v>
+      </c>
+      <c r="M30">
+        <v>25</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>48</v>
-      </c>
-      <c r="K30">
-        <v>0.5208333333333334</v>
-      </c>
-      <c r="L30">
-        <v>75</v>
-      </c>
-      <c r="M30">
-        <v>75</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>69</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.52</v>
+        <v>0.3263598326359833</v>
       </c>
       <c r="L31">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M31">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1648,21 +1603,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.5038759689922481</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L32">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1674,21 +1629,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.4285714285714285</v>
+        <v>0.02416666666666667</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1700,21 +1655,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.4</v>
+        <v>0.02108768035516093</v>
       </c>
       <c r="L34">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1726,137 +1681,215 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>882</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.4</v>
+        <v>0.01086142322097378</v>
       </c>
       <c r="L35">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>18</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.3369565217391304</v>
+        <v>0.01027557216254087</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>61</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.02682926829268293</v>
+        <v>0.01010526315789474</v>
       </c>
       <c r="L37">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>399</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.01199040767386091</v>
+        <v>0.009414654113794515</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>824</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39">
+        <v>0.00855095909406055</v>
+      </c>
+      <c r="L39">
+        <v>37</v>
+      </c>
+      <c r="M39">
+        <v>38</v>
+      </c>
+      <c r="N39">
+        <v>0.97</v>
+      </c>
+      <c r="O39">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40">
+        <v>0.007745933384972889</v>
+      </c>
+      <c r="L40">
+        <v>40</v>
+      </c>
+      <c r="M40">
+        <v>41</v>
+      </c>
+      <c r="N40">
+        <v>0.98</v>
+      </c>
+      <c r="O40">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K39">
-        <v>0.00572737686139748</v>
-      </c>
-      <c r="L39">
-        <v>10</v>
-      </c>
-      <c r="M39">
-        <v>10</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>1736</v>
+      <c r="K41">
+        <v>0.007008410092110532</v>
+      </c>
+      <c r="L41">
+        <v>35</v>
+      </c>
+      <c r="M41">
+        <v>37</v>
+      </c>
+      <c r="N41">
+        <v>0.95</v>
+      </c>
+      <c r="O41">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>4959</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42">
+        <v>0.006769825918762089</v>
+      </c>
+      <c r="L42">
+        <v>21</v>
+      </c>
+      <c r="M42">
+        <v>26</v>
+      </c>
+      <c r="N42">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O42">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>3081</v>
       </c>
     </row>
   </sheetData>
